--- a/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_dweldat.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_dweldat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecochr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83328ED-0F33-4CA0-BA78-79D27774419B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655CCB28-6F7C-4CC2-9FB1-711CAE25FBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="4455" windowWidth="21600" windowHeight="11295" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -203,11 +203,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,9 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C9F7A4-E508-400A-BB6E-1E0697A206D7}">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -541,8 +545,8 @@
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
@@ -604,10 +608,10 @@
       <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="2" t="s">

--- a/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_dweldat.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_dweldat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecochr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Documents\edited_town_close_workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655CCB28-6F7C-4CC2-9FB1-711CAE25FBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C729EF-ACA0-4694-9E45-34AA1F7C0ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -59,57 +59,6 @@
     <t>Difference in %</t>
   </si>
   <si>
-    <t>2023 LMV</t>
-  </si>
-  <si>
-    <t>2023 BMV</t>
-  </si>
-  <si>
-    <t>2023 Total MV</t>
-  </si>
-  <si>
-    <t>2023 LAV</t>
-  </si>
-  <si>
-    <t>2023 BAV</t>
-  </si>
-  <si>
-    <t>2023 Total AV</t>
-  </si>
-  <si>
-    <t>2023 Oc %</t>
-  </si>
-  <si>
-    <t>2024 Occ%</t>
-  </si>
-  <si>
-    <t>2023 % of 2024</t>
-  </si>
-  <si>
-    <t>2024 LMV</t>
-  </si>
-  <si>
-    <t>2024 BMV</t>
-  </si>
-  <si>
-    <t>2024 Total MV</t>
-  </si>
-  <si>
-    <t>2024 LAV</t>
-  </si>
-  <si>
-    <t>2024 BAV</t>
-  </si>
-  <si>
-    <t>2024 Total AV</t>
-  </si>
-  <si>
-    <t>2023 DWELDAT VAL</t>
-  </si>
-  <si>
-    <t>2024 DWELDAT VAL</t>
-  </si>
-  <si>
     <t>Card Code</t>
   </si>
   <si>
@@ -117,6 +66,57 @@
   </si>
   <si>
     <t>TOWNSHIP</t>
+  </si>
+  <si>
+    <t>Prior Year Oc %</t>
+  </si>
+  <si>
+    <t>Prior Year % of Curr. Year</t>
+  </si>
+  <si>
+    <t>Curr. Year Occ %</t>
+  </si>
+  <si>
+    <t>Prior Year DWELDAT VAL</t>
+  </si>
+  <si>
+    <t>Prior Year LMV</t>
+  </si>
+  <si>
+    <t>Prior Year BMV</t>
+  </si>
+  <si>
+    <t>Prior Year Total MV</t>
+  </si>
+  <si>
+    <t>Prior Year LAV</t>
+  </si>
+  <si>
+    <t>Prior Year BAV</t>
+  </si>
+  <si>
+    <t>Prior Year Total AV</t>
+  </si>
+  <si>
+    <t>Curr. Year LMV</t>
+  </si>
+  <si>
+    <t>Curr. Year BMV</t>
+  </si>
+  <si>
+    <t>Curr. Year Total MV</t>
+  </si>
+  <si>
+    <t>Curr. Year LAV</t>
+  </si>
+  <si>
+    <t>Curr. Year BAV</t>
+  </si>
+  <si>
+    <t>Curr. Year Total AV</t>
+  </si>
+  <si>
+    <t>Curr. Year DWELDAT VAL</t>
   </si>
 </sst>
 </file>
@@ -232,9 +232,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -272,7 +272,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -378,7 +378,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,59 +530,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C9F7A4-E508-400A-BB6E-1E0697A206D7}">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="15" max="15" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" customWidth="1"/>
+    <col min="24" max="24" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5546875" customWidth="1"/>
+    <col min="27" max="27" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="11" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -600,61 +603,61 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="Z1" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_dweldat.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_dweldat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Documents\edited_town_close_workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C729EF-ACA0-4694-9E45-34AA1F7C0ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ED2F23-B89D-4ECB-8C77-15AFA7D673C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
+    <workbookView xWindow="-33945" yWindow="4005" windowWidth="27765" windowHeight="9525" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -530,9 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C9F7A4-E508-400A-BB6E-1E0697A206D7}">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_dweldat.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_dweldat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ED2F23-B89D-4ECB-8C77-15AFA7D673C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF12A40-B79B-4309-BC65-53318C3E460A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33945" yWindow="4005" windowWidth="27765" windowHeight="9525" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
   </bookViews>
@@ -543,24 +543,24 @@
     <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="25" style="4" customWidth="1"/>
     <col min="13" max="13" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" customWidth="1"/>
-    <col min="15" max="15" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5546875" customWidth="1"/>
-    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.109375" customWidth="1"/>
-    <col min="24" max="24" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5546875" customWidth="1"/>
-    <col min="27" max="27" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.77734375" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="20.109375" customWidth="1"/>
+    <col min="22" max="22" width="17.33203125" customWidth="1"/>
+    <col min="23" max="23" width="16.77734375" customWidth="1"/>
+    <col min="24" max="24" width="21.6640625" customWidth="1"/>
+    <col min="25" max="25" width="16.5546875" customWidth="1"/>
+    <col min="26" max="26" width="16.109375" customWidth="1"/>
+    <col min="27" max="27" width="18.21875" customWidth="1"/>
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>

--- a/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_dweldat.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_prior_year_card_code_5s_dweldat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecochr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655CCB28-6F7C-4CC2-9FB1-711CAE25FBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF12A40-B79B-4309-BC65-53318C3E460A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
+    <workbookView xWindow="-33945" yWindow="4005" windowWidth="27765" windowHeight="9525" xr2:uid="{F86E03EA-3BEB-4D35-8C8E-3F43C895C1B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -59,57 +59,6 @@
     <t>Difference in %</t>
   </si>
   <si>
-    <t>2023 LMV</t>
-  </si>
-  <si>
-    <t>2023 BMV</t>
-  </si>
-  <si>
-    <t>2023 Total MV</t>
-  </si>
-  <si>
-    <t>2023 LAV</t>
-  </si>
-  <si>
-    <t>2023 BAV</t>
-  </si>
-  <si>
-    <t>2023 Total AV</t>
-  </si>
-  <si>
-    <t>2023 Oc %</t>
-  </si>
-  <si>
-    <t>2024 Occ%</t>
-  </si>
-  <si>
-    <t>2023 % of 2024</t>
-  </si>
-  <si>
-    <t>2024 LMV</t>
-  </si>
-  <si>
-    <t>2024 BMV</t>
-  </si>
-  <si>
-    <t>2024 Total MV</t>
-  </si>
-  <si>
-    <t>2024 LAV</t>
-  </si>
-  <si>
-    <t>2024 BAV</t>
-  </si>
-  <si>
-    <t>2024 Total AV</t>
-  </si>
-  <si>
-    <t>2023 DWELDAT VAL</t>
-  </si>
-  <si>
-    <t>2024 DWELDAT VAL</t>
-  </si>
-  <si>
     <t>Card Code</t>
   </si>
   <si>
@@ -117,6 +66,57 @@
   </si>
   <si>
     <t>TOWNSHIP</t>
+  </si>
+  <si>
+    <t>Prior Year Oc %</t>
+  </si>
+  <si>
+    <t>Prior Year % of Curr. Year</t>
+  </si>
+  <si>
+    <t>Curr. Year Occ %</t>
+  </si>
+  <si>
+    <t>Prior Year DWELDAT VAL</t>
+  </si>
+  <si>
+    <t>Prior Year LMV</t>
+  </si>
+  <si>
+    <t>Prior Year BMV</t>
+  </si>
+  <si>
+    <t>Prior Year Total MV</t>
+  </si>
+  <si>
+    <t>Prior Year LAV</t>
+  </si>
+  <si>
+    <t>Prior Year BAV</t>
+  </si>
+  <si>
+    <t>Prior Year Total AV</t>
+  </si>
+  <si>
+    <t>Curr. Year LMV</t>
+  </si>
+  <si>
+    <t>Curr. Year BMV</t>
+  </si>
+  <si>
+    <t>Curr. Year Total MV</t>
+  </si>
+  <si>
+    <t>Curr. Year LAV</t>
+  </si>
+  <si>
+    <t>Curr. Year BAV</t>
+  </si>
+  <si>
+    <t>Curr. Year Total AV</t>
+  </si>
+  <si>
+    <t>Curr. Year DWELDAT VAL</t>
   </si>
 </sst>
 </file>
@@ -232,9 +232,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -272,7 +272,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -378,7 +378,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,57 +532,58 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="25" style="4" customWidth="1"/>
     <col min="13" max="13" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.77734375" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="20.109375" customWidth="1"/>
+    <col min="22" max="22" width="17.33203125" customWidth="1"/>
+    <col min="23" max="23" width="16.77734375" customWidth="1"/>
+    <col min="24" max="24" width="21.6640625" customWidth="1"/>
+    <col min="25" max="25" width="16.5546875" customWidth="1"/>
+    <col min="26" max="26" width="16.109375" customWidth="1"/>
+    <col min="27" max="27" width="18.21875" customWidth="1"/>
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="11" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -600,61 +601,61 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="Z1" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
